--- a/biology/Botanique/Xyris_lacera/Xyris_lacera.xlsx
+++ b/biology/Botanique/Xyris_lacera/Xyris_lacera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xyris lacera est une espèce de la famille des Xyridaceae. C'est un œil jaune que l'on trouve dans les parties méridionales de l'Australie-Occidentale, dans les zones marécageuses.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe vivace touffue, mesurant de 0,2 à 1,5 mètre de haut[1].
-Il s'agit de l'une des nombreuses plantes publiées pour la première fois par  Robert Brown, apparaissant dans son Prodromus Florae Novae Hollandiae et Insulae Van Diemen' en 1810[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe vivace touffue, mesurant de 0,2 à 1,5 mètre de haut.
+Il s'agit de l'une des nombreuses plantes publiées pour la première fois par  Robert Brown, apparaissant dans son Prodromus Florae Novae Hollandiae et Insulae Van Diemen' en 1810,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xyris lacera  R.Br.[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xyris lacera  R.Br..
 </t>
         </is>
       </c>
